--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817907.753781799</v>
+        <v>1815655.674070591</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283207</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>201.6622187863191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361191</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>87.52274688849866</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335178</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>76.97130521239055</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>376.2274714067194</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095779</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.2349094828588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.26003672910142</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376932</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>185.4706806359738</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323837</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.85993176807962</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507376</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>127.1477159870275</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.67842139643643</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>1.632620083626906</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.96838802184498</v>
+        <v>139.5115415340471</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132710792</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>224.7837165195613</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="I40" t="n">
-        <v>73.44478684180568</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3955,16 +3955,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,16 +4325,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2176.004930555062</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="C4" t="n">
-        <v>2007.068747627155</v>
+        <v>530.5487792519425</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.952108214819</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632426</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134516</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>3237.199006570283</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>2948.096139695926</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2693.41165149004</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>2403.994481453079</v>
+        <v>940.1867949801996</v>
       </c>
       <c r="X4" t="n">
-        <v>2176.004930555062</v>
+        <v>712.1972440821822</v>
       </c>
       <c r="Y4" t="n">
-        <v>2176.004930555062</v>
+        <v>712.1972440821822</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221566</v>
+        <v>1935.366530930993</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1566.404013990581</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1208.138315383831</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1935.366530930993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621287</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251681</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271508</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1872.48643018031</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1617.801941974423</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1328.384771937462</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5021,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>734.6461798835923</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713832</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>916.294644713832</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>95.584050252739</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792906</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1350.004464872981</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1122.014913974964</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459573</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>768.5380889459573</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>618.4214495336215</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>618.4214495336215</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>471.5315020357111</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>304.3354027505911</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919727</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.186553776197</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367892</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0218491516692</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.3100179938673</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>551.263652184387</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>551.263652184387</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>404.3737046864766</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>237.1776054013565</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>95.46577424355459</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
         <v>680.0291294438176</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.927936255316</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.767110287001</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>921.8309273590944</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>771.7142879467586</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E40" t="n">
-        <v>623.8011943643655</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F40" t="n">
-        <v>476.9112468664551</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G40" t="n">
-        <v>309.7151475813351</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="H40" t="n">
-        <v>168.0033164235332</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1272.415575117241</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7494,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426093463</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>31.93476969131444</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.6630665685114</v>
+        <v>286.5229983365957</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864789027</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13.14699685919642</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5874149221290992</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>79.63321623493863</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.8635921600923</v>
+        <v>40.32043864789023</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911044</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.40075786968285</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788709</v>
       </c>
       <c r="I40" t="n">
-        <v>7.821049476759853</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069535</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069536</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
@@ -26329,31 +26329,31 @@
         <v>544823.9547907537</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813241</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.6146887266</v>
+        <v>-972219.6146887275</v>
       </c>
       <c r="C6" t="n">
         <v>356525.1310388659</v>
       </c>
       <c r="D6" t="n">
-        <v>356525.1310388653</v>
+        <v>356525.131038866</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727107</v>
+        <v>107697.1369472752</v>
       </c>
       <c r="F6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800653</v>
+        <v>433109.5987546294</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.3366800653</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="J6" t="n">
-        <v>215613.1342827881</v>
+        <v>215578.3963573525</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.3366800653</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="L6" t="n">
-        <v>433144.3366800654</v>
+        <v>433109.59875463</v>
       </c>
       <c r="M6" t="n">
-        <v>348089.3087445537</v>
+        <v>348054.5708191183</v>
       </c>
       <c r="N6" t="n">
-        <v>433144.3366800654</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800655</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800659</v>
+        <v>433109.5987546301</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,20 +27009,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.306832697355</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.255751353301093</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024417</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>132.0262023876705</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903102</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>277.7117364082924</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>5.702898665542421</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.349743869236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>231.9518014765115</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-7.623874244263537e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685849</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190042</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942259</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745598</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
